--- a/db/amicitia.github.io.xlsx
+++ b/db/amicitia.github.io.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryans\Documents\GitHub\Amicitia.github.io\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4A01A3-5853-4F95-8DA6-591427676343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28BB6BD-5A00-4A5C-8D78-442942E0843D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4265" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="1840">
   <si>
     <t>ID</t>
   </si>
@@ -5461,9 +5461,6 @@
     <t>https://shrinefox.com/forum/viewtopic.php?f=19&amp;t=689</t>
   </si>
   <si>
-    <t>witch-ui</t>
-  </si>
-  <si>
     <t>Switch Button Prompts</t>
   </si>
   <si>
@@ -5477,6 +5474,75 @@
   </si>
   <si>
     <t>https://shrinefox.com/forum/viewtopic.php?f=15&amp;t=690</t>
+  </si>
+  <si>
+    <t>switch-ui</t>
+  </si>
+  <si>
+    <t>Classroom and Social Link cheat sheets</t>
+  </si>
+  <si>
+    <t>https://gamebanana.com/gamefiles/13084</t>
+  </si>
+  <si>
+    <t>Tired of having a controller in one hand and a guidebook in the other? Take back your other hand with the power of in-game text edits.</t>
+  </si>
+  <si>
+    <t>https://shrinefox.com/forum/viewtopic.php?f=11&amp;t=693</t>
+  </si>
+  <si>
+    <t>(Social Links)</t>
+  </si>
+  <si>
+    <t>(Classroom)</t>
+  </si>
+  <si>
+    <t>https://gamebanana.com/gamefiles/13051</t>
+  </si>
+  <si>
+    <t>p3fes-cheat-sheets</t>
+  </si>
+  <si>
+    <t>Lupin III Joker Costumes</t>
+  </si>
+  <si>
+    <t>This mod replaces 5 of Joker's outfits to the Lupin the 3rd based ones,&lt;br&gt;The following costumes were changed:&lt;br&gt;&lt;br&gt;Summer Uniform - The Green Jacket (Part 1)&lt;br&gt;Summer Casual - The Red Jacket (Part 2)&lt;br&gt;Winter Uniform - The Pink Jacket (Part 3)&lt;br&gt;Winter Casual - The Blue Jacket (Part 4-5)&lt;br&gt;Swimsuit - The Black Jacket (Goodbye Partner)</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/681270126657798295/769347180002803712/unknown.png</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/383343424625180675/769349368184569887/Lupin_III_Joker_costumes.7z</t>
+  </si>
+  <si>
+    <t>https://shrinefox.com/forum/viewtopic.php?f=15&amp;t=694</t>
+  </si>
+  <si>
+    <t>p5-no-hands-idle</t>
+  </si>
+  <si>
+    <t>p5-joker-lupin-III</t>
+  </si>
+  <si>
+    <t>Player Animation</t>
+  </si>
+  <si>
+    <t>Player Model, Party Model, GMD</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/byPPk35.png</t>
+  </si>
+  <si>
+    <t>https://shrinefox.com/forum/viewtopic.php?f=15&amp;p=2615</t>
+  </si>
+  <si>
+    <t>Small mod for those who'd like to take screen shots of custom MC models without the character putting their hands in their pockets.</t>
+  </si>
+  <si>
+    <t>https://mega.nz/file/qGp2kSwA#OZxOMHuzplZkW2Hr26USN_eU8CWn8S_s-1f1lPcMXes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-OMFG8gEVmA</t>
   </si>
 </sst>
 </file>
@@ -6011,7 +6077,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -6054,6 +6120,7 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6388,10 +6455,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V181"/>
+  <dimension ref="A1:V184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView tabSelected="1" topLeftCell="I163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O189" sqref="O189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17583,10 +17650,10 @@
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>1812</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>1813</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>246</v>
@@ -17604,16 +17671,16 @@
         <v>400</v>
       </c>
       <c r="H181" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="I181" s="33" t="s">
+        <v>1767</v>
+      </c>
+      <c r="J181" s="39" t="s">
+        <v>1815</v>
+      </c>
+      <c r="K181" s="41" t="s">
         <v>1814</v>
-      </c>
-      <c r="I181" s="33" t="s">
-        <v>1767</v>
-      </c>
-      <c r="J181" s="39" t="s">
-        <v>1816</v>
-      </c>
-      <c r="K181" s="41" t="s">
-        <v>1815</v>
       </c>
       <c r="L181" s="4" t="s">
         <v>241</v>
@@ -17625,7 +17692,7 @@
         <v>1767</v>
       </c>
       <c r="O181" s="40" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="P181" s="33" t="s">
         <v>1767</v>
@@ -17644,6 +17711,168 @@
       </c>
       <c r="V181" t="s">
         <v>1767</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E182" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="F182" s="6">
+        <v>44127</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="J182" s="39" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K182" s="41" t="s">
+        <v>1819</v>
+      </c>
+      <c r="L182" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="N182" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="O182" s="40" t="s">
+        <v>1821</v>
+      </c>
+      <c r="P182" s="42" t="s">
+        <v>1824</v>
+      </c>
+      <c r="Q182" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="R182" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="S182" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="T182" s="7" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E183" s="4">
+        <v>1</v>
+      </c>
+      <c r="F183" s="6">
+        <v>44127</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="K183" s="8" t="s">
+        <v>1829</v>
+      </c>
+      <c r="L183" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="M183" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="N183" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="P183" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="Q183" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="R183" s="8" t="s">
+        <v>1767</v>
+      </c>
+      <c r="S183" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="T183" s="7" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E184" s="4">
+        <v>1</v>
+      </c>
+      <c r="F184" s="6">
+        <v>44117</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="K184" s="8" t="s">
+        <v>1838</v>
+      </c>
+      <c r="L184" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>1836</v>
       </c>
     </row>
   </sheetData>
@@ -17656,9 +17885,12 @@
     <hyperlink ref="J181" r:id="rId6" xr:uid="{86E1FA86-E0C3-4606-B733-A352446FBD7C}"/>
     <hyperlink ref="K181" r:id="rId7" xr:uid="{1DC304D2-DDB0-4181-9BF9-DD8569676D64}"/>
     <hyperlink ref="O181" r:id="rId8" xr:uid="{4B0743CB-62A9-4491-B77E-EB6B5EB26551}"/>
+    <hyperlink ref="K182" r:id="rId9" xr:uid="{157BC9AB-D9A6-4DB1-B803-3214813F885B}"/>
+    <hyperlink ref="O182" r:id="rId10" xr:uid="{74B43D26-B092-4C7C-8E71-0DEE977D72D8}"/>
+    <hyperlink ref="P182" r:id="rId11" xr:uid="{C66907D6-5242-4A09-B16B-76B57FE9A222}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
